--- a/Sample Columns.xlsx
+++ b/Sample Columns.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0660D1E3-B650-46F8-A2A5-2E98CAF350A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5A289-03F2-45DE-B56A-2F980ED83F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -391,6 +391,7 @@
         <v>36</v>
       </c>
       <c r="C1">
+        <f t="shared" ref="C1:C11" si="0">SUM(A1,B1)</f>
         <v>195</v>
       </c>
     </row>
@@ -402,6 +403,7 @@
         <v>35</v>
       </c>
       <c r="C2">
+        <f t="shared" si="0"/>
         <v>3394</v>
       </c>
     </row>
@@ -413,6 +415,7 @@
         <v>8996</v>
       </c>
       <c r="C3">
+        <f t="shared" si="0"/>
         <v>18068</v>
       </c>
     </row>
@@ -424,6 +427,7 @@
         <v>56</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
         <v>679</v>
       </c>
     </row>
@@ -435,6 +439,7 @@
         <v>324</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
         <v>335</v>
       </c>
     </row>
@@ -446,6 +451,7 @@
         <v>88942</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>95585</v>
       </c>
     </row>
@@ -457,6 +463,7 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -468,6 +475,7 @@
         <v>4324</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>7537</v>
       </c>
     </row>
@@ -479,6 +487,7 @@
         <v>43</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
         <v>7775</v>
       </c>
     </row>
@@ -490,6 +499,7 @@
         <v>13</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
         <v>965</v>
       </c>
     </row>
@@ -501,6 +511,7 @@
         <v>91</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
         <v>3668</v>
       </c>
     </row>
